--- a/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
+++ b/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="8520" windowWidth="32320" windowHeight="18160" tabRatio="500"/>
+    <workbookView xWindow="21180" yWindow="460" windowWidth="30020" windowHeight="26740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="90">
   <si>
     <t>comments</t>
   </si>
@@ -107,9 +107,6 @@
     <t>required</t>
   </si>
   <si>
-    <t>capacity</t>
-  </si>
-  <si>
     <t>config/tables/refrigerator_types/html/refrigerator_types_detail.html</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>Choose Power Source Required:</t>
   </si>
   <si>
-    <t>power</t>
-  </si>
-  <si>
     <t>power_source</t>
   </si>
   <si>
@@ -149,74 +143,179 @@
     <t>data_value</t>
   </si>
   <si>
-    <t>power_source</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>electricity</t>
   </si>
   <si>
     <t>Electricity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>kerosene</t>
   </si>
   <si>
     <t>Kerosene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
+    <t xml:space="preserve">Enter the manufacturer: </t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>select_multiple</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>solar</t>
+  </si>
+  <si>
+    <t>Enter the refrigerator's gross volume:</t>
+  </si>
+  <si>
+    <t>refrigerator_gross_volume</t>
+  </si>
+  <si>
+    <t>power_sources</t>
+  </si>
+  <si>
+    <t>catalog_id</t>
+  </si>
+  <si>
+    <t>Enter catalog ID:</t>
+  </si>
+  <si>
     <t>model_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Enter the model year: </t>
-  </si>
-  <si>
-    <t>Enter model ID:</t>
-  </si>
-  <si>
-    <t>Enter the gross capacity:</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>model_year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter the manufacturer: </t>
-  </si>
-  <si>
-    <t>manufacturer</t>
-  </si>
-  <si>
-    <t>select_multiple</t>
-  </si>
-  <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>Solar</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>solar</t>
+    <t>equipment_type</t>
+  </si>
+  <si>
+    <t>climate_zone</t>
+  </si>
+  <si>
+    <t>refrigerator_net_volume</t>
+  </si>
+  <si>
+    <t>freezer_gross_volume</t>
+  </si>
+  <si>
+    <t>freezer_net_volume</t>
+  </si>
+  <si>
+    <t>Enter the model ID:</t>
+  </si>
+  <si>
+    <t>Select what type of equipment this is</t>
+  </si>
+  <si>
+    <t>equipment_types</t>
+  </si>
+  <si>
+    <t>select_one</t>
+  </si>
+  <si>
+    <t>chest_refrigerator</t>
+  </si>
+  <si>
+    <t>chest_freezer</t>
+  </si>
+  <si>
+    <t>upright_refrigerator</t>
+  </si>
+  <si>
+    <t>ice_pack_freezer</t>
+  </si>
+  <si>
+    <t>ice_lined_refrigerator</t>
+  </si>
+  <si>
+    <t>solar_photovoltaic_refrigerator</t>
+  </si>
+  <si>
+    <t>solar_thermal_refrigerator</t>
+  </si>
+  <si>
+    <t>Chest Refrigerator</t>
+  </si>
+  <si>
+    <t>Chest Freezer</t>
+  </si>
+  <si>
+    <t>Upright Refrigerator</t>
+  </si>
+  <si>
+    <t>Ice Pack Freezer</t>
+  </si>
+  <si>
+    <t>Ice Lined Refrigerator</t>
+  </si>
+  <si>
+    <t>Solar Photovoltaic Refrigerator</t>
+  </si>
+  <si>
+    <t>Solar Thermal Refrigerator</t>
+  </si>
+  <si>
+    <t>What climate zone is this equipment best for?</t>
+  </si>
+  <si>
+    <t>climate_zones</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>temperate</t>
+  </si>
+  <si>
+    <t>Temperate</t>
+  </si>
+  <si>
+    <t>moderate</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Enter the refrigerator's net volume:</t>
+  </si>
+  <si>
+    <t>Enter the freezer's gross volume:</t>
+  </si>
+  <si>
+    <t>Enter the freezer's net volume:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -249,9 +348,10 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -279,37 +379,38 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -599,8 +700,9 @@
     <col min="1" max="1" width="22.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="59.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="43.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -624,37 +726,35 @@
         <v>24</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="9" t="b">
-        <v>1</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
-        <v>50</v>
+      <c r="D3" t="s">
+        <v>55</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -662,203 +762,226 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="9"/>
+        <v>29</v>
+      </c>
       <c r="D5" s="9" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="9" t="b">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>36</v>
+      <c r="B6" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A10" s="8"/>
+      <c r="B10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A11" s="8"/>
+      <c r="B11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -867,84 +990,194 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="10"/>
-    <col min="2" max="2" width="26.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="17.1640625" style="10"/>
+    <col min="1" max="1" width="17.1640625" style="12"/>
+    <col min="2" max="2" width="26.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="17.1640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="13" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>56</v>
+      <c r="C6" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1010,7 +1243,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1027,7 +1260,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1065,7 +1298,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1073,7 +1306,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1081,7 +1314,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">

--- a/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
+++ b/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21180" yWindow="460" windowWidth="30020" windowHeight="26740" tabRatio="500"/>
+    <workbookView xWindow="22600" yWindow="0" windowWidth="28600" windowHeight="28800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="96">
   <si>
     <t>comments</t>
   </si>
@@ -50,9 +50,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>setting_name</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
   </si>
   <si>
     <t>text</t>
-  </si>
-  <si>
-    <t>Choose Power Source Required:</t>
   </si>
   <si>
     <t>power_source</t>
@@ -302,6 +296,30 @@
   </si>
   <si>
     <t>Enter the freezer's net volume:</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>refrigerator_picture</t>
+  </si>
+  <si>
+    <t>Take a picture of the refrigerator</t>
+  </si>
+  <si>
+    <t>Choose power source required:</t>
+  </si>
+  <si>
+    <t>clause</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>begin screen</t>
+  </si>
+  <si>
+    <t>end screen</t>
   </si>
 </sst>
 </file>
@@ -381,7 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -411,6 +429,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,299 +712,378 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
-    <col min="5" max="5" width="43.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="2" max="3" width="22.6640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" customWidth="1"/>
+    <col min="7" max="7" width="43.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="7" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A12" s="8"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="G12" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A13" s="8"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" t="s">
+      <c r="G13" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A14" s="8"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="G14" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A17" s="8"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A18" s="8"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A19" s="8"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1006,10 +1108,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>4</v>
@@ -1017,167 +1119,167 @@
     </row>
     <row r="2" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="C8" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1197,70 +1299,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1375,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1284,42 +1386,42 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="b">
         <v>1</v>
@@ -1327,10 +1429,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
+++ b/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22600" yWindow="0" windowWidth="28600" windowHeight="28800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25560" windowHeight="28800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="96">
   <si>
     <t>comments</t>
   </si>
@@ -712,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -760,21 +760,17 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
@@ -784,11 +780,11 @@
         <v>31</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" t="s">
-        <v>53</v>
+      <c r="F3" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -798,88 +794,89 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="7" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
-      <c r="B5" s="16"/>
+      <c r="B5" s="16" t="s">
+        <v>95</v>
+      </c>
       <c r="C5" s="16"/>
-      <c r="D5" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
-      <c r="B6" s="16" t="s">
-        <v>94</v>
-      </c>
+      <c r="B6" s="16"/>
       <c r="C6" s="16"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="F6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="7" t="s">
-        <v>28</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>30</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>30</v>
@@ -890,137 +887,157 @@
         <v>28</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="17" t="s">
+      <c r="D11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="D13" s="7"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
-      <c r="D14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>77</v>
+      <c r="D14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
-      <c r="B15" s="16"/>
+      <c r="B15" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="C15" s="16"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="17" spans="1:8" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="18" spans="1:8" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
-      <c r="B18" s="16"/>
+      <c r="B18" s="16" t="s">
+        <v>95</v>
+      </c>
       <c r="C18" s="16"/>
       <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:8" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A20" s="8"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A21" s="8"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A22" s="8"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="16"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D25" s="1"/>
@@ -1078,12 +1095,30 @@
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
+++ b/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="98">
   <si>
     <t xml:space="preserve">comments</t>
   </si>
@@ -43,118 +43,121 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
+    <t xml:space="preserve">display.prompt.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.hint.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">begin screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catalog_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter catalog ID:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the model ID:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refrigerator_picture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take a picture of the refrigerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the manufacturer: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refrigerator_gross_volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the refrigerator's gross volume:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(cubic meters)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refrigerator_net_volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the refrigerator's net volume:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freezer_gross_volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the freezer's gross volume:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freezer_net_volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the freezer's net volume:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_multiple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">power_sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">power_source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose power source required:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equipment_types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equipment_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select what type of equipment this is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">climate_zones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">climate_zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What climate zone is this equipment best for?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choice_list_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_value</t>
+  </si>
+  <si>
     <t xml:space="preserve">display.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.hint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">begin screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">catalog_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter catalog ID:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter the model ID:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refrigerator_picture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Take a picture of the refrigerator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter the manufacturer: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refrigerator_gross_volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter the refrigerator's gross volume:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(cubic meters)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refrigerator_net_volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter the refrigerator's net volume:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">freezer_gross_volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter the freezer's gross volume:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">freezer_net_volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter the freezer's net volume:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_multiple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">power_sources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">power_source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose power source required:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">equipment_types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">equipment_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select what type of equipment this is</t>
-  </si>
-  <si>
-    <t xml:space="preserve">climate_zones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">climate_zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What climate zone is this equipment best for?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice_list_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_value</t>
   </si>
   <si>
     <t xml:space="preserve">electricity</t>
@@ -350,14 +353,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -422,7 +425,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -440,11 +443,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -452,19 +459,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -492,7 +495,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -504,7 +507,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -576,8 +579,8 @@
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -593,7 +596,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="10.49"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -907,7 +910,7 @@
         <v>43</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -915,10 +918,10 @@
         <v>32</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -926,10 +929,10 @@
         <v>32</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -937,10 +940,10 @@
         <v>32</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -948,10 +951,10 @@
         <v>32</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -959,10 +962,10 @@
         <v>32</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -970,10 +973,10 @@
         <v>36</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -981,10 +984,10 @@
         <v>36</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -992,10 +995,10 @@
         <v>36</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1003,10 +1006,10 @@
         <v>36</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1014,10 +1017,10 @@
         <v>36</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1025,10 +1028,10 @@
         <v>36</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1036,10 +1039,10 @@
         <v>36</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1047,10 +1050,10 @@
         <v>39</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1058,10 +1061,10 @@
         <v>39</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1069,10 +1072,10 @@
         <v>39</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1093,7 +1096,7 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1104,70 +1107,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1188,8 +1191,8 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1201,42 +1204,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B6" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -1245,7 +1248,7 @@
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>11</v>
@@ -1253,10 +1256,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B8" s="16" t="n">
-        <v>20170713</v>
+        <v>20170714</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
+++ b/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
@@ -292,7 +292,7 @@
     <t xml:space="preserve">setting_name</t>
   </si>
   <si>
-    <t xml:space="preserve">display.title</t>
+    <t xml:space="preserve">display.title.text</t>
   </si>
   <si>
     <t xml:space="preserve">form_id</t>
@@ -1192,7 +1192,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
+++ b/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="137">
   <si>
     <t xml:space="preserve">comments</t>
   </si>
@@ -46,12 +46,18 @@
     <t xml:space="preserve">display.prompt.text</t>
   </si>
   <si>
+    <t xml:space="preserve">display.prompt.text.spanish</t>
+  </si>
+  <si>
     <t xml:space="preserve">required</t>
   </si>
   <si>
     <t xml:space="preserve">display.hint.text</t>
   </si>
   <si>
+    <t xml:space="preserve">display.hint.text.spanish</t>
+  </si>
+  <si>
     <t xml:space="preserve">begin screen</t>
   </si>
   <si>
@@ -64,12 +70,18 @@
     <t xml:space="preserve">Enter catalog ID:</t>
   </si>
   <si>
+    <t xml:space="preserve">ID de cataĺogo</t>
+  </si>
+  <si>
     <t xml:space="preserve">model_id</t>
   </si>
   <si>
     <t xml:space="preserve">Enter the model ID:</t>
   </si>
   <si>
+    <t xml:space="preserve">Modelo</t>
+  </si>
+  <si>
     <t xml:space="preserve">end screen</t>
   </si>
   <si>
@@ -82,12 +94,18 @@
     <t xml:space="preserve">Take a picture of the refrigerator</t>
   </si>
   <si>
+    <t xml:space="preserve">Foto del frigorífico</t>
+  </si>
+  <si>
     <t xml:space="preserve">manufacturer</t>
   </si>
   <si>
     <t xml:space="preserve">Enter the manufacturer: </t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricante</t>
+  </si>
+  <si>
     <t xml:space="preserve">decimal</t>
   </si>
   <si>
@@ -97,27 +115,42 @@
     <t xml:space="preserve">Enter the refrigerator's gross volume:</t>
   </si>
   <si>
+    <t xml:space="preserve">Volumen en bruto de frigorífico</t>
+  </si>
+  <si>
     <t xml:space="preserve">(cubic meters)</t>
   </si>
   <si>
+    <t xml:space="preserve">(metro cúbico)</t>
+  </si>
+  <si>
     <t xml:space="preserve">refrigerator_net_volume</t>
   </si>
   <si>
     <t xml:space="preserve">Enter the refrigerator's net volume:</t>
   </si>
   <si>
+    <t xml:space="preserve">Volumen neto de frigorífico</t>
+  </si>
+  <si>
     <t xml:space="preserve">freezer_gross_volume</t>
   </si>
   <si>
     <t xml:space="preserve">Enter the freezer's gross volume:</t>
   </si>
   <si>
+    <t xml:space="preserve">Volumen en bruto de congelador</t>
+  </si>
+  <si>
     <t xml:space="preserve">freezer_net_volume</t>
   </si>
   <si>
     <t xml:space="preserve">Enter the freezer's net volume:</t>
   </si>
   <si>
+    <t xml:space="preserve">Volumen neto de congelador</t>
+  </si>
+  <si>
     <t xml:space="preserve">select_multiple</t>
   </si>
   <si>
@@ -130,6 +163,9 @@
     <t xml:space="preserve">Choose power source required:</t>
   </si>
   <si>
+    <t xml:space="preserve">Eliga el fuente de poder requerido</t>
+  </si>
+  <si>
     <t xml:space="preserve">select_one</t>
   </si>
   <si>
@@ -142,6 +178,9 @@
     <t xml:space="preserve">Select what type of equipment this is</t>
   </si>
   <si>
+    <t xml:space="preserve">Tipo</t>
+  </si>
+  <si>
     <t xml:space="preserve">climate_zones</t>
   </si>
   <si>
@@ -151,6 +190,9 @@
     <t xml:space="preserve">What climate zone is this equipment best for?</t>
   </si>
   <si>
+    <t xml:space="preserve">Mejor clima</t>
+  </si>
+  <si>
     <t xml:space="preserve">choice_list_name</t>
   </si>
   <si>
@@ -160,78 +202,117 @@
     <t xml:space="preserve">display.text</t>
   </si>
   <si>
+    <t xml:space="preserve">display.text.spanish</t>
+  </si>
+  <si>
     <t xml:space="preserve">electricity</t>
   </si>
   <si>
     <t xml:space="preserve">Electricity</t>
   </si>
   <si>
+    <t xml:space="preserve">Electricidad</t>
+  </si>
+  <si>
     <t xml:space="preserve">kerosene</t>
   </si>
   <si>
     <t xml:space="preserve">Kerosene</t>
   </si>
   <si>
+    <t xml:space="preserve">Queroseno</t>
+  </si>
+  <si>
     <t xml:space="preserve">gas</t>
   </si>
   <si>
     <t xml:space="preserve">Gas</t>
   </si>
   <si>
+    <t xml:space="preserve">Combustible</t>
+  </si>
+  <si>
     <t xml:space="preserve">solar</t>
   </si>
   <si>
     <t xml:space="preserve">Solar</t>
   </si>
   <si>
+    <t xml:space="preserve">Solár</t>
+  </si>
+  <si>
     <t xml:space="preserve">unknown</t>
   </si>
   <si>
     <t xml:space="preserve">Unknown</t>
   </si>
   <si>
+    <t xml:space="preserve">Desconocido</t>
+  </si>
+  <si>
     <t xml:space="preserve">chest_refrigerator</t>
   </si>
   <si>
     <t xml:space="preserve">Chest Refrigerator</t>
   </si>
   <si>
+    <t xml:space="preserve">Frigorífico de baúl</t>
+  </si>
+  <si>
     <t xml:space="preserve">chest_freezer</t>
   </si>
   <si>
     <t xml:space="preserve">Chest Freezer</t>
   </si>
   <si>
+    <t xml:space="preserve">Congelador de baúl</t>
+  </si>
+  <si>
     <t xml:space="preserve">upright_refrigerator</t>
   </si>
   <si>
     <t xml:space="preserve">Upright Refrigerator</t>
   </si>
   <si>
+    <t xml:space="preserve">Frigorífico fijo</t>
+  </si>
+  <si>
     <t xml:space="preserve">ice_pack_freezer</t>
   </si>
   <si>
     <t xml:space="preserve">Ice Pack Freezer</t>
   </si>
   <si>
+    <t xml:space="preserve">Congelador de bloque de hielo</t>
+  </si>
+  <si>
     <t xml:space="preserve">ice_lined_refrigerator</t>
   </si>
   <si>
     <t xml:space="preserve">Ice Lined Refrigerator</t>
   </si>
   <si>
+    <t xml:space="preserve">Congelador lineado con hielo</t>
+  </si>
+  <si>
     <t xml:space="preserve">solar_photovoltaic_refrigerator</t>
   </si>
   <si>
     <t xml:space="preserve">Solar Photovoltaic Refrigerator</t>
   </si>
   <si>
+    <t xml:space="preserve">Frigorífico de solár</t>
+  </si>
+  <si>
     <t xml:space="preserve">solar_thermal_refrigerator</t>
   </si>
   <si>
     <t xml:space="preserve">Solar Thermal Refrigerator</t>
   </si>
   <si>
+    <t xml:space="preserve">Frigorífico termal</t>
+  </si>
+  <si>
     <t xml:space="preserve">moderate</t>
   </si>
   <si>
@@ -244,12 +325,18 @@
     <t xml:space="preserve">Temperate</t>
   </si>
   <si>
+    <t xml:space="preserve">Templado</t>
+  </si>
+  <si>
     <t xml:space="preserve">hot</t>
   </si>
   <si>
     <t xml:space="preserve">Hot</t>
   </si>
   <si>
+    <t xml:space="preserve">Caliente</t>
+  </si>
+  <si>
     <t xml:space="preserve">partition</t>
   </si>
   <si>
@@ -295,6 +382,15 @@
     <t xml:space="preserve">display.title.text</t>
   </si>
   <si>
+    <t xml:space="preserve">display.title.text.spanish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">locale.title.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">locale.title.text.spanish</t>
+  </si>
+  <si>
     <t xml:space="preserve">form_id</t>
   </si>
   <si>
@@ -307,6 +403,9 @@
     <t xml:space="preserve">Refrigerator Types</t>
   </si>
   <si>
+    <t xml:space="preserve">Modelos de Frigeríficos</t>
+  </si>
+  <si>
     <t xml:space="preserve">table_id</t>
   </si>
   <si>
@@ -317,6 +416,24 @@
   </si>
   <si>
     <t xml:space="preserve">form_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">english</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inglés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spanish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spanish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Español</t>
   </si>
 </sst>
 </file>
@@ -577,13 +694,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="22.66"/>
@@ -591,9 +708,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="43.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="34.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="10.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -624,11 +742,17 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -637,45 +761,52 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I3" s="9"/>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="I4" s="9"/>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="5"/>
@@ -683,45 +814,52 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="I6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="5"/>
@@ -730,148 +868,180 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" s="9" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="F12" s="9" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D13" s="5"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" s="9" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H13" s="9"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" s="9" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" s="9" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="5" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" s="9" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="5" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" s="9" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
       <c r="B18" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-    </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="H18" s="5"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -888,10 +1058,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -904,178 +1074,226 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>44</v>
+        <v>58</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>46</v>
+        <v>61</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>48</v>
+        <v>64</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>50</v>
+        <v>67</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>52</v>
+        <v>70</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>54</v>
+        <v>73</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>56</v>
+        <v>76</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>58</v>
+        <v>79</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>60</v>
+        <v>82</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>62</v>
+        <v>85</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>64</v>
+        <v>88</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>66</v>
+        <v>91</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>68</v>
+        <v>94</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>70</v>
+        <v>97</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>72</v>
+        <v>99</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>74</v>
+        <v>102</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1107,70 +1325,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1189,10 +1407,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1204,42 +1422,54 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>89</v>
+        <v>118</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>93</v>
+        <v>125</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="B6" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -1248,18 +1478,40 @@
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="B8" s="16" t="n">
-        <v>20170714</v>
+        <v>20170715</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
+++ b/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="156">
   <si>
     <t xml:space="preserve">comments</t>
   </si>
@@ -43,10 +43,16 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
+    <t xml:space="preserve">display.title.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.title.text.es</t>
+  </si>
+  <si>
     <t xml:space="preserve">display.prompt.text</t>
   </si>
   <si>
-    <t xml:space="preserve">display.prompt.text.spanish</t>
+    <t xml:space="preserve">display.prompt.text.es</t>
   </si>
   <si>
     <t xml:space="preserve">required</t>
@@ -55,7 +61,7 @@
     <t xml:space="preserve">display.hint.text</t>
   </si>
   <si>
-    <t xml:space="preserve">display.hint.text.spanish</t>
+    <t xml:space="preserve">display.hint.text.es</t>
   </si>
   <si>
     <t xml:space="preserve">begin screen</t>
@@ -67,6 +73,12 @@
     <t xml:space="preserve">catalog_id</t>
   </si>
   <si>
+    <t xml:space="preserve">Catalog ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID de Cataĺogo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enter catalog ID:</t>
   </si>
   <si>
@@ -76,12 +88,15 @@
     <t xml:space="preserve">model_id</t>
   </si>
   <si>
+    <t xml:space="preserve">Model ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enter the model ID:</t>
   </si>
   <si>
-    <t xml:space="preserve">Modelo</t>
-  </si>
-  <si>
     <t xml:space="preserve">end screen</t>
   </si>
   <si>
@@ -91,6 +106,12 @@
     <t xml:space="preserve">refrigerator_picture</t>
   </si>
   <si>
+    <t xml:space="preserve">Picture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foto</t>
+  </si>
+  <si>
     <t xml:space="preserve">Take a picture of the refrigerator</t>
   </si>
   <si>
@@ -100,18 +121,27 @@
     <t xml:space="preserve">manufacturer</t>
   </si>
   <si>
+    <t xml:space="preserve">Manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabricante</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enter the manufacturer: </t>
   </si>
   <si>
-    <t xml:space="preserve">Fabricante</t>
-  </si>
-  <si>
     <t xml:space="preserve">decimal</t>
   </si>
   <si>
     <t xml:space="preserve">refrigerator_gross_volume</t>
   </si>
   <si>
+    <t xml:space="preserve">Refrigerator Gross Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volumen en Bruto de Frigorífico</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enter the refrigerator's gross volume:</t>
   </si>
   <si>
@@ -127,6 +157,12 @@
     <t xml:space="preserve">refrigerator_net_volume</t>
   </si>
   <si>
+    <t xml:space="preserve">Refrigerator Net Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volumen Neto de Frigorífico</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enter the refrigerator's net volume:</t>
   </si>
   <si>
@@ -136,6 +172,12 @@
     <t xml:space="preserve">freezer_gross_volume</t>
   </si>
   <si>
+    <t xml:space="preserve">Freezer Gross Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volumen en Bruto de Congelador</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enter the freezer's gross volume:</t>
   </si>
   <si>
@@ -145,6 +187,12 @@
     <t xml:space="preserve">freezer_net_volume</t>
   </si>
   <si>
+    <t xml:space="preserve">Freezer Net Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volumen Neto de Congelador</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enter the freezer's net volume:</t>
   </si>
   <si>
@@ -160,6 +208,12 @@
     <t xml:space="preserve">power_source</t>
   </si>
   <si>
+    <t xml:space="preserve">Power Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuente de Poder</t>
+  </si>
+  <si>
     <t xml:space="preserve">Choose power source required:</t>
   </si>
   <si>
@@ -175,18 +229,27 @@
     <t xml:space="preserve">equipment_type</t>
   </si>
   <si>
+    <t xml:space="preserve">Equipment Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Select what type of equipment this is</t>
   </si>
   <si>
-    <t xml:space="preserve">Tipo</t>
-  </si>
-  <si>
     <t xml:space="preserve">climate_zones</t>
   </si>
   <si>
     <t xml:space="preserve">climate_zone</t>
   </si>
   <si>
+    <t xml:space="preserve">Climate Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mejor Clima</t>
+  </si>
+  <si>
     <t xml:space="preserve">What climate zone is this equipment best for?</t>
   </si>
   <si>
@@ -202,7 +265,7 @@
     <t xml:space="preserve">display.text</t>
   </si>
   <si>
-    <t xml:space="preserve">display.text.spanish</t>
+    <t xml:space="preserve">display.text.es</t>
   </si>
   <si>
     <t xml:space="preserve">electricity</t>
@@ -379,16 +442,10 @@
     <t xml:space="preserve">setting_name</t>
   </si>
   <si>
-    <t xml:space="preserve">display.title.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.title.text.spanish</t>
-  </si>
-  <si>
     <t xml:space="preserve">locale.title.text</t>
   </si>
   <si>
-    <t xml:space="preserve">locale.title.text.spanish</t>
+    <t xml:space="preserve">locale.title.text.es</t>
   </si>
   <si>
     <t xml:space="preserve">form_id</t>
@@ -427,7 +484,7 @@
     <t xml:space="preserve">Inglés</t>
   </si>
   <si>
-    <t xml:space="preserve">spanish</t>
+    <t xml:space="preserve">es</t>
   </si>
   <si>
     <t xml:space="preserve">Spanish</t>
@@ -694,10 +751,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -707,11 +764,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="43.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="34.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="43.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="34.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="10.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -745,14 +804,20 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -762,104 +827,131 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="5"/>
       <c r="E5" s="9"/>
-      <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="5"/>
@@ -869,124 +961,158 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" s="9" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>32</v>
+        <v>52</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>32</v>
+      <c r="M12" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D13" s="5"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
       <c r="J13" s="9"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>46</v>
+        <v>62</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15" s="8"/>
     </row>
@@ -995,19 +1121,25 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>50</v>
+        <v>67</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>51</v>
+        <v>69</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,25 +1147,31 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>55</v>
+        <v>74</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
       <c r="B18" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="5"/>
@@ -1041,6 +1179,8 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1060,8 +1200,8 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1074,226 +1214,226 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1325,70 +1465,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1409,8 +1549,8 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1422,54 +1562,54 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B6" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -1478,40 +1618,40 @@
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="B8" s="16" t="n">
-        <v>20170715</v>
+        <v>20170717</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
+++ b/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="154">
   <si>
     <t xml:space="preserve">comments</t>
   </si>
@@ -260,12 +260,6 @@
   </si>
   <si>
     <t xml:space="preserve">data_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.text.es</t>
   </si>
   <si>
     <t xml:space="preserve">electricity</t>
@@ -1220,10 +1214,10 @@
         <v>78</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1231,13 +1225,13 @@
         <v>59</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1245,13 +1239,13 @@
         <v>59</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1259,13 +1253,13 @@
         <v>59</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1273,13 +1267,13 @@
         <v>59</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1287,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1301,13 +1295,13 @@
         <v>66</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1315,13 +1309,13 @@
         <v>66</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1329,13 +1323,13 @@
         <v>66</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1343,13 +1337,13 @@
         <v>66</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1357,13 +1351,13 @@
         <v>66</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1371,13 +1365,13 @@
         <v>66</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1385,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1399,13 +1393,13 @@
         <v>71</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1413,13 +1407,13 @@
         <v>71</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1427,13 +1421,13 @@
         <v>71</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1465,70 +1459,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>127</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>132</v>
-      </c>
       <c r="E3" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>132</v>
-      </c>
       <c r="E4" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1562,10 +1556,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>6</v>
@@ -1574,42 +1568,42 @@
         <v>7</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B6" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -1618,7 +1612,7 @@
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>15</v>
@@ -1626,32 +1620,32 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B8" s="16" t="n">
-        <v>20170717</v>
+        <v>20170718</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>150</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>153</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
+++ b/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
@@ -1615,7 +1615,7 @@
         <v>146</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1623,7 +1623,7 @@
         <v>147</v>
       </c>
       <c r="B8" s="16" t="n">
-        <v>20170718</v>
+        <v>20170719</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
+++ b/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="168">
   <si>
     <t xml:space="preserve">comments</t>
   </si>
@@ -431,6 +431,48 @@
   </si>
   <si>
     <t xml:space="preserve">config/assets/aa_refrigerator_types_list.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unverifiedUserCanCreate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">defaultAccessOnCreation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">READ_ONLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">locked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FormType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FormType.formType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SURVEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SurveyUtil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SurveyUtil.formId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrong_form</t>
   </si>
   <si>
     <t xml:space="preserve">setting_name</t>
@@ -598,7 +640,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -657,6 +699,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1446,10 +1492,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1523,6 +1569,91 @@
       </c>
       <c r="E4" s="0" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1544,7 +1675,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1556,7 +1687,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>126</v>
@@ -1568,42 +1699,42 @@
         <v>7</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
-        <v>145</v>
+      <c r="A6" s="16" t="s">
+        <v>159</v>
       </c>
       <c r="B6" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -1612,40 +1743,40 @@
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" s="16" t="n">
-        <v>20170719</v>
+      <c r="A8" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="17" t="n">
+        <v>20170804</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
+++ b/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clarice\cold-chain\cold-chain-app-designer\app\config\tables\refrigerator_types\forms\refrigerator_types\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26380" windowHeight="13940" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26385" windowHeight="13935" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="properties" sheetId="3" r:id="rId3"/>
     <sheet name="settings" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="166">
   <si>
     <t>comments</t>
   </si>
@@ -370,12 +375,6 @@
   </si>
   <si>
     <t>Frigorífico termal</t>
-  </si>
-  <si>
-    <t>moderate</t>
-  </si>
-  <si>
-    <t>Moderate</t>
   </si>
   <si>
     <t>temperate</t>
@@ -534,7 +533,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -727,6 +726,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1054,27 +1061,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="22.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="22.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" customWidth="1"/>
-    <col min="9" max="9" width="43.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="7" max="7" width="23.375" customWidth="1"/>
+    <col min="8" max="8" width="20.125" customWidth="1"/>
+    <col min="9" max="9" width="43.375" customWidth="1"/>
     <col min="10" max="10" width="35" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.625" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
     <col min="13" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1115,7 +1122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>13</v>
@@ -1131,7 +1138,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1157,7 +1164,7 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1183,7 +1190,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>24</v>
@@ -1197,7 +1204,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1223,7 +1230,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1249,7 +1256,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
         <v>13</v>
@@ -1265,7 +1272,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:13" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="9" spans="1:13" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1294,7 +1301,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D10" s="5" t="s">
         <v>35</v>
       </c>
@@ -1320,7 +1327,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D11" s="5" t="s">
         <v>35</v>
       </c>
@@ -1346,7 +1353,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D12" s="5" t="s">
         <v>35</v>
       </c>
@@ -1372,7 +1379,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1384,7 +1391,7 @@
       <c r="J13" s="9"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:13" s="9" customFormat="1" ht="12">
+    <row r="14" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1410,14 +1417,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="9" customFormat="1" ht="12">
+    <row r="15" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:13" s="9" customFormat="1" ht="12">
+    <row r="16" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1443,7 +1450,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="12">
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1469,7 +1476,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="12">
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="8" t="s">
         <v>24</v>
@@ -1496,21 +1503,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK18"/>
+  <dimension ref="A1:AMK17"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="17.125" style="10" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" style="10" customWidth="1"/>
-    <col min="4" max="1025" width="17.1640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="10" customWidth="1"/>
+    <col min="4" max="1025" width="17.125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.25" customHeight="1">
+    <row r="1" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>77</v>
       </c>
@@ -1524,7 +1531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19" customHeight="1">
+    <row r="2" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>59</v>
       </c>
@@ -1538,7 +1545,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.25" customHeight="1">
+    <row r="3" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>59</v>
       </c>
@@ -1552,7 +1559,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>59</v>
       </c>
@@ -1566,7 +1573,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19" customHeight="1">
+    <row r="5" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>59</v>
       </c>
@@ -1580,7 +1587,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="22" customHeight="1">
+    <row r="6" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>59</v>
       </c>
@@ -1594,7 +1601,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>66</v>
       </c>
@@ -1608,7 +1615,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1">
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>66</v>
       </c>
@@ -1622,7 +1629,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1">
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>66</v>
       </c>
@@ -1636,7 +1643,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="22" customHeight="1">
+    <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>66</v>
       </c>
@@ -1650,7 +1657,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1">
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>66</v>
       </c>
@@ -1664,7 +1671,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>66</v>
       </c>
@@ -1678,7 +1685,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>66</v>
       </c>
@@ -1692,7 +1699,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1">
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>71</v>
       </c>
@@ -1703,35 +1710,21 @@
         <v>116</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="19" customHeight="1">
-      <c r="A18" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1749,166 +1742,166 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
         <v>123</v>
-      </c>
-      <c r="B1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" t="s">
-        <v>125</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>127</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>128</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>129</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
         <v>130</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D4" t="s">
         <v>128</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="E6" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="E7" s="15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="14" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="B8" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="14" t="s">
+      <c r="D8" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="14" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1930,19 +1923,19 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -1951,84 +1944,84 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>149</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>151</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
         <v>153</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>154</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="16" t="s">
-        <v>157</v>
       </c>
       <c r="B6" s="6" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B8" s="17">
         <v>20170804</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" t="s">
         <v>160</v>
       </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>161</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E10" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="F10" t="s">
         <v>163</v>
-      </c>
-      <c r="E10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F10" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
+++ b/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26385" windowHeight="13935" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26390" windowHeight="13940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -155,12 +155,6 @@
     <t>Volumen en bruto de frigorífico</t>
   </si>
   <si>
-    <t>(cubic meters)</t>
-  </si>
-  <si>
-    <t>(metro cúbico)</t>
-  </si>
-  <si>
     <t>refrigerator_net_volume</t>
   </si>
   <si>
@@ -528,6 +522,12 @@
   </si>
   <si>
     <t>config/tables/refrigerator_types/html/refrigerator_types_list.html</t>
+  </si>
+  <si>
+    <t>(liters)</t>
+  </si>
+  <si>
+    <t>(litros)</t>
   </si>
 </sst>
 </file>
@@ -1061,27 +1061,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="22.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="22.58203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="22.58203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="7" max="7" width="23.375" customWidth="1"/>
-    <col min="8" max="8" width="20.125" customWidth="1"/>
-    <col min="9" max="9" width="43.375" customWidth="1"/>
+    <col min="6" max="6" width="23.08203125" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.08203125" customWidth="1"/>
+    <col min="9" max="9" width="43.33203125" customWidth="1"/>
     <col min="10" max="10" width="35" customWidth="1"/>
-    <col min="11" max="11" width="19.625" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="11" max="11" width="19.58203125" customWidth="1"/>
+    <col min="12" max="12" width="14.58203125" customWidth="1"/>
     <col min="13" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>13</v>
@@ -1138,7 +1138,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1164,7 +1164,7 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1190,7 +1190,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>24</v>
@@ -1204,7 +1204,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1230,7 +1230,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1256,7 +1256,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
         <v>13</v>
@@ -1272,7 +1272,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:13" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1295,91 +1295,91 @@
         <v>40</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D10" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" t="s">
-        <v>47</v>
-      </c>
       <c r="L10" s="9" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D11" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="I11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="J11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="L11" s="9" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D12" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="I12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="J12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>57</v>
-      </c>
       <c r="L12" s="9" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1391,92 +1391,92 @@
       <c r="J13" s="9"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="9" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="I14" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="J14" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:13" s="9" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="9" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="G16" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="H16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="I16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="J16" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="J17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="8" t="s">
         <v>24</v>
@@ -1505,24 +1505,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="17.08203125" style="10" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="10" customWidth="1"/>
-    <col min="4" max="1025" width="17.125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="27.58203125" style="10" customWidth="1"/>
+    <col min="4" max="1025" width="17.08203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>6</v>
@@ -1531,200 +1531,200 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="12" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="12" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="12" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="12" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="10" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="14" t="s">
+      <c r="D8" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="10" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="D9" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="10" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="D10" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="10" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="14" t="s">
+      <c r="D11" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="10" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="14" t="s">
+      <c r="D12" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="10" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="D13" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="10" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="14" t="s">
+      <c r="D14" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="10" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="10" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1746,162 +1746,162 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
         <v>121</v>
-      </c>
-      <c r="B1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" t="s">
-        <v>123</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>125</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>126</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>127</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
         <v>128</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D4" t="s">
         <v>126</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="E6" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="E7" s="15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="14" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="B8" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="D8" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="14" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>143</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1923,19 +1923,19 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -1944,84 +1944,84 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>147</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>149</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
         <v>151</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>152</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>155</v>
       </c>
       <c r="B6" s="6" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B8" s="17">
         <v>20170804</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" t="s">
         <v>158</v>
       </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>159</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E10" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="F10" t="s">
         <v>161</v>
-      </c>
-      <c r="E10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
+++ b/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26390" windowHeight="13940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26390" windowHeight="13940" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="175">
   <si>
     <t>comments</t>
   </si>
@@ -528,6 +528,33 @@
   </si>
   <si>
     <t>(litros)</t>
+  </si>
+  <si>
+    <t>refrigerator</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Frigorífico</t>
+  </si>
+  <si>
+    <t>freezer</t>
+  </si>
+  <si>
+    <t>Freezer</t>
+  </si>
+  <si>
+    <t>Congelador</t>
+  </si>
+  <si>
+    <t>refrigerator_freezer</t>
+  </si>
+  <si>
+    <t>Refrigerator/Freezer</t>
+  </si>
+  <si>
+    <t>Frigorífico/Congelador</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -1503,10 +1530,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK17"/>
+  <dimension ref="A1:AMK20"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1514,7 +1541,8 @@
     <col min="1" max="1" width="17.08203125" style="10" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="10" customWidth="1"/>
     <col min="3" max="3" width="27.58203125" style="10" customWidth="1"/>
-    <col min="4" max="1025" width="17.08203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="26.75" style="10" customWidth="1"/>
+    <col min="5" max="1025" width="17.08203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -1699,31 +1727,73 @@
         <v>112</v>
       </c>
     </row>
+    <row r="15" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="16" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B19" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
+    <row r="20" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>118</v>
       </c>
     </row>

--- a/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
+++ b/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26390" windowHeight="13940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26390" windowHeight="13940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,11 @@
     <sheet name="settings" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="221">
   <si>
     <t>comments</t>
   </si>
@@ -467,12 +459,6 @@
     <t>setting_name</t>
   </si>
   <si>
-    <t>locale.title.text</t>
-  </si>
-  <si>
-    <t>locale.title.text.es</t>
-  </si>
-  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -555,6 +541,150 @@
   </si>
   <si>
     <t>Frigorífico/Congelador</t>
+  </si>
+  <si>
+    <t>ID du catalogue</t>
+  </si>
+  <si>
+    <t>ID du modèle</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Fabricant</t>
+  </si>
+  <si>
+    <t>Volume brut du réfrigérateur</t>
+  </si>
+  <si>
+    <t>Volume net du réfrigérateur</t>
+  </si>
+  <si>
+    <t>Volume brut du congélateur</t>
+  </si>
+  <si>
+    <t>Volume net du congélateur</t>
+  </si>
+  <si>
+    <t>Source d'énergie</t>
+  </si>
+  <si>
+    <t>Type de matériel</t>
+  </si>
+  <si>
+    <t>Zone climatique</t>
+  </si>
+  <si>
+    <t>display.title.text.fr</t>
+  </si>
+  <si>
+    <t>Entrer l'ID du catalogue :</t>
+  </si>
+  <si>
+    <t>Entrer l'ID du modèle :</t>
+  </si>
+  <si>
+    <t>Prendre une photo du réfrigérateur</t>
+  </si>
+  <si>
+    <t>Entrer le fabricant :</t>
+  </si>
+  <si>
+    <t>Entrer le volume brut du réfrigérateur :</t>
+  </si>
+  <si>
+    <t>Entrer le volume net du réfrigérateur :</t>
+  </si>
+  <si>
+    <t>Entrer le volume brut du congélateur :</t>
+  </si>
+  <si>
+    <t>Entrer le volume net du congélateur :</t>
+  </si>
+  <si>
+    <t>Choisir la source d'énergie requise :</t>
+  </si>
+  <si>
+    <t>Sélectionner le type de matériel</t>
+  </si>
+  <si>
+    <t>À quelle zone climatique le matériel est-il le mieux adapté ?</t>
+  </si>
+  <si>
+    <t>display.prompt.text.fr</t>
+  </si>
+  <si>
+    <t>Électricité</t>
+  </si>
+  <si>
+    <t>Kérosène</t>
+  </si>
+  <si>
+    <t>Gaz</t>
+  </si>
+  <si>
+    <t>Énergie solaire</t>
+  </si>
+  <si>
+    <t>Source d'énergie inconnue</t>
+  </si>
+  <si>
+    <t>Réfrigérateur coffre</t>
+  </si>
+  <si>
+    <t>Congélateur coffre</t>
+  </si>
+  <si>
+    <t>Réfrigérateur droit</t>
+  </si>
+  <si>
+    <t>Bloc de congélation</t>
+  </si>
+  <si>
+    <t>Réfrigétateur bordé de glace</t>
+  </si>
+  <si>
+    <t>Réfrigérateur à énergie solaire photovoltaïque</t>
+  </si>
+  <si>
+    <t>Réfrigérateur à énergie solaire thermique</t>
+  </si>
+  <si>
+    <t>Tempéré</t>
+  </si>
+  <si>
+    <t>Chaud</t>
+  </si>
+  <si>
+    <t>Types de réfrigérateur</t>
+  </si>
+  <si>
+    <t>display.locale.text</t>
+  </si>
+  <si>
+    <t>display.locale.text.es</t>
+  </si>
+  <si>
+    <t>display.locale.text.fr</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>Anglais</t>
+  </si>
+  <si>
+    <t>Espagnol</t>
+  </si>
+  <si>
+    <t>Francais</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Francés</t>
   </si>
 </sst>
 </file>
@@ -641,7 +771,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -676,6 +806,32 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -1086,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1100,15 +1256,15 @@
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="23.08203125" customWidth="1"/>
     <col min="7" max="7" width="23.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.08203125" customWidth="1"/>
-    <col min="9" max="9" width="43.33203125" customWidth="1"/>
-    <col min="10" max="10" width="35" customWidth="1"/>
-    <col min="11" max="11" width="19.58203125" customWidth="1"/>
-    <col min="12" max="12" width="14.58203125" customWidth="1"/>
-    <col min="13" max="1025" width="10.5" customWidth="1"/>
+    <col min="8" max="9" width="20.08203125" customWidth="1"/>
+    <col min="10" max="10" width="43.33203125" customWidth="1"/>
+    <col min="11" max="12" width="35" customWidth="1"/>
+    <col min="13" max="13" width="19.58203125" customWidth="1"/>
+    <col min="14" max="14" width="14.58203125" customWidth="1"/>
+    <col min="15" max="1027" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1133,23 +1289,29 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>13</v>
@@ -1160,12 +1322,14 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="I2" s="21"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L2" s="24"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1182,16 +1346,22 @@
       <c r="H3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L3" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1208,16 +1378,22 @@
       <c r="H4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L4" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>24</v>
@@ -1226,12 +1402,14 @@
       <c r="D5" s="5"/>
       <c r="E5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L5" s="25"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1248,16 +1426,22 @@
       <c r="H6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L6" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1274,16 +1458,22 @@
       <c r="H7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L7" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
         <v>13</v>
@@ -1294,12 +1484,14 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="I8" s="22"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:13" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="25"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1315,20 +1507,26 @@
       <c r="H9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="K9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L9" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D10" s="5" t="s">
         <v>35</v>
       </c>
@@ -1341,20 +1539,26 @@
       <c r="H10" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L10" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D11" s="5" t="s">
         <v>35</v>
       </c>
@@ -1367,20 +1571,26 @@
       <c r="H11" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="K11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="L11" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L11" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D12" s="5" t="s">
         <v>35</v>
       </c>
@@ -1393,20 +1603,26 @@
       <c r="H12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="K12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L12" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1414,11 +1630,13 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="I13" s="22"/>
       <c r="J13" s="9"/>
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="1:13" s="9" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K13" s="9"/>
+      <c r="L13" s="25"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" s="9" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1437,21 +1655,29 @@
       <c r="H14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="K14" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" s="9" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="L14" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="9" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:13" s="9" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="I15" s="22"/>
+      <c r="L15" s="25"/>
+    </row>
+    <row r="16" spans="1:15" s="9" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1470,14 +1696,20 @@
       <c r="H16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="K16" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="L16" s="24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="9" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1496,14 +1728,20 @@
       <c r="H17" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="K17" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="L17" s="24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="9" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="8" t="s">
         <v>24</v>
@@ -1514,17 +1752,14 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="I18" s="21"/>
       <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1532,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1542,10 +1777,11 @@
     <col min="2" max="2" width="26.5" style="10" customWidth="1"/>
     <col min="3" max="3" width="27.58203125" style="10" customWidth="1"/>
     <col min="4" max="4" width="26.75" style="10" customWidth="1"/>
-    <col min="5" max="1025" width="17.08203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="40.5" style="10" customWidth="1"/>
+    <col min="6" max="1025" width="17.08203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>75</v>
       </c>
@@ -1558,8 +1794,11 @@
       <c r="D1" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E1" s="27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>57</v>
       </c>
@@ -1572,8 +1811,11 @@
       <c r="D2" s="10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>57</v>
       </c>
@@ -1586,8 +1828,11 @@
       <c r="D3" s="10" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>57</v>
       </c>
@@ -1600,8 +1845,11 @@
       <c r="D4" s="10" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>57</v>
       </c>
@@ -1614,8 +1862,11 @@
       <c r="D5" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>57</v>
       </c>
@@ -1628,8 +1879,11 @@
       <c r="D6" s="10" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>64</v>
       </c>
@@ -1642,8 +1896,11 @@
       <c r="D8" s="10" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>64</v>
       </c>
@@ -1656,8 +1913,11 @@
       <c r="D9" s="10" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>64</v>
       </c>
@@ -1670,8 +1930,11 @@
       <c r="D10" s="10" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>64</v>
       </c>
@@ -1684,8 +1947,11 @@
       <c r="D11" s="10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>64</v>
       </c>
@@ -1698,8 +1964,11 @@
       <c r="D12" s="10" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>64</v>
       </c>
@@ -1712,8 +1981,11 @@
       <c r="D13" s="10" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>64</v>
       </c>
@@ -1726,50 +1998,53 @@
       <c r="D14" s="10" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>64</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>64</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>69</v>
       </c>
@@ -1782,8 +2057,11 @@
       <c r="D19" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>69</v>
       </c>
@@ -1795,16 +2073,14 @@
       </c>
       <c r="D20" s="10" t="s">
         <v>118</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1869,7 +2145,7 @@
         <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -1886,7 +2162,7 @@
         <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1987,20 +2263,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="1025" width="10.5" customWidth="1"/>
+    <col min="3" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="29" style="26" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="1026" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>144</v>
       </c>
@@ -2013,94 +2294,125 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>145</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="E2" s="29"/>
+    </row>
+    <row r="4" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>147</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
         <v>149</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" s="31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>150</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>153</v>
       </c>
       <c r="B6" s="6" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B8" s="17">
         <v>20170804</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" t="s">
         <v>156</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" s="30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>157</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E10" s="29"/>
+      <c r="F10" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="G10" t="s">
         <v>159</v>
       </c>
-      <c r="E10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F10" t="s">
-        <v>161</v>
+      <c r="H10" s="30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
+++ b/app/config/tables/refrigerator_types/forms/refrigerator_types/refrigerator_types.xlsx
@@ -12,17 +12,18 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="26390" windowHeight="13940" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" r:id="rId1"/>
-    <sheet name="choices" sheetId="2" r:id="rId2"/>
-    <sheet name="properties" sheetId="3" r:id="rId3"/>
-    <sheet name="settings" sheetId="4" r:id="rId4"/>
+    <sheet name="initial" sheetId="5" r:id="rId1"/>
+    <sheet name="survey" sheetId="1" r:id="rId2"/>
+    <sheet name="choices" sheetId="2" r:id="rId3"/>
+    <sheet name="properties" sheetId="3" r:id="rId4"/>
+    <sheet name="settings" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="225">
   <si>
     <t>comments</t>
   </si>
@@ -685,6 +686,18 @@
   </si>
   <si>
     <t>Francés</t>
+  </si>
+  <si>
+    <t>display.text</t>
+  </si>
+  <si>
+    <t>do section survey</t>
+  </si>
+  <si>
+    <t>goto _finalize</t>
+  </si>
+  <si>
+    <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
   </si>
 </sst>
 </file>
@@ -1242,9 +1255,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16" style="29" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="29"/>
+    <col min="3" max="3" width="18" style="29" customWidth="1"/>
+    <col min="4" max="4" width="24.25" style="29" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -1763,7 +1830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK20"/>
   <sheetViews>
@@ -2084,7 +2151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -2261,7 +2328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -2316,7 +2383,7 @@
       </c>
       <c r="E2" s="29"/>
     </row>
-    <row r="4" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>147</v>
       </c>
